--- a/biology/Zoologie/Gerbille_de_Wagner/Gerbille_de_Wagner.xlsx
+++ b/biology/Zoologie/Gerbille_de_Wagner/Gerbille_de_Wagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dipodillus dasyurus
-La Gerbille de Wagner[1] (Dipodillus dasyurus) est une espèce de rongeurs de la famille des Muridés. On la rencontre sur le pourtour de la péninsule arabique.
+La Gerbille de Wagner (Dipodillus dasyurus) est une espèce de rongeurs de la famille des Muridés. On la rencontre sur le pourtour de la péninsule arabique.
 D'autres classifications rangent cette espèce dans le genre Dipodillus.
 Synonymes :
-Gerbillus dasyurus[2]
-Dipodillus (Petteromys) dasyurus[3]</t>
+Gerbillus dasyurus
+Dipodillus (Petteromys) dasyurus</t>
         </is>
       </c>
     </row>
